--- a/natmiOut/OldD7/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H2">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I2">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J2">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N2">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q2">
-        <v>1203.96949279179</v>
+        <v>397.4257912068266</v>
       </c>
       <c r="R2">
-        <v>1203.96949279179</v>
+        <v>3576.83212086144</v>
       </c>
       <c r="S2">
-        <v>0.008272019665018171</v>
+        <v>0.001720841547146855</v>
       </c>
       <c r="T2">
-        <v>0.008272019665018171</v>
+        <v>0.001720841547146856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H3">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I3">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J3">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N3">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q3">
-        <v>3869.328982019073</v>
+        <v>1067.170332456857</v>
       </c>
       <c r="R3">
-        <v>3869.328982019073</v>
+        <v>9604.532992111712</v>
       </c>
       <c r="S3">
-        <v>0.02658469805199768</v>
+        <v>0.00462081497126233</v>
       </c>
       <c r="T3">
-        <v>0.02658469805199768</v>
+        <v>0.004620814971262331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H4">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I4">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J4">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N4">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q4">
-        <v>5136.980820524898</v>
+        <v>1526.496681247261</v>
       </c>
       <c r="R4">
-        <v>5136.980820524898</v>
+        <v>13738.47013122535</v>
       </c>
       <c r="S4">
-        <v>0.03529425506261708</v>
+        <v>0.006609684043643304</v>
       </c>
       <c r="T4">
-        <v>0.03529425506261708</v>
+        <v>0.006609684043643304</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H5">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I5">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J5">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N5">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q5">
-        <v>1337.93200771235</v>
+        <v>483.1884813660507</v>
       </c>
       <c r="R5">
-        <v>1337.93200771235</v>
+        <v>4348.696332294456</v>
       </c>
       <c r="S5">
-        <v>0.0091924255095455</v>
+        <v>0.002092191378200649</v>
       </c>
       <c r="T5">
-        <v>0.0091924255095455</v>
+        <v>0.002092191378200649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H6">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I6">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J6">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N6">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q6">
-        <v>12928.74733463951</v>
+        <v>1466.777398188231</v>
       </c>
       <c r="R6">
-        <v>12928.74733463951</v>
+        <v>13200.99658369408</v>
       </c>
       <c r="S6">
-        <v>0.08882853995594082</v>
+        <v>0.00635110137053158</v>
       </c>
       <c r="T6">
-        <v>0.08882853995594082</v>
+        <v>0.006351101370531582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H7">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I7">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J7">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N7">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q7">
-        <v>41550.53517769969</v>
+        <v>3938.600257702275</v>
       </c>
       <c r="R7">
-        <v>41550.53517769969</v>
+        <v>35447.40231932048</v>
       </c>
       <c r="S7">
-        <v>0.2854780342357068</v>
+        <v>0.01705401891627653</v>
       </c>
       <c r="T7">
-        <v>0.2854780342357068</v>
+        <v>0.01705401891627653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H8">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I8">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J8">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N8">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q8">
-        <v>55163.1311998211</v>
+        <v>5633.833737019852</v>
       </c>
       <c r="R8">
-        <v>55163.1311998211</v>
+        <v>50704.50363317867</v>
       </c>
       <c r="S8">
-        <v>0.3790050402446621</v>
+        <v>0.02439432814599593</v>
       </c>
       <c r="T8">
-        <v>0.3790050402446621</v>
+        <v>0.02439432814599593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H9">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I9">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J9">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N9">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q9">
-        <v>14367.29500390368</v>
+        <v>1783.301333767199</v>
       </c>
       <c r="R9">
-        <v>14367.29500390368</v>
+        <v>16049.71200390479</v>
       </c>
       <c r="S9">
-        <v>0.09871225767508839</v>
+        <v>0.007721640351800813</v>
       </c>
       <c r="T9">
-        <v>0.09871225767508839</v>
+        <v>0.007721640351800813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.4300467868052</v>
+        <v>666.4749603333333</v>
       </c>
       <c r="H10">
-        <v>39.4300467868052</v>
+        <v>1999.424881</v>
       </c>
       <c r="I10">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="J10">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N10">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q10">
-        <v>1041.444082638998</v>
+        <v>21212.17403884594</v>
       </c>
       <c r="R10">
-        <v>1041.444082638998</v>
+        <v>190909.5663496134</v>
       </c>
       <c r="S10">
-        <v>0.007155368955097286</v>
+        <v>0.09184806622768819</v>
       </c>
       <c r="T10">
-        <v>0.007155368955097286</v>
+        <v>0.09184806622768822</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.4300467868052</v>
+        <v>666.4749603333333</v>
       </c>
       <c r="H11">
-        <v>39.4300467868052</v>
+        <v>1999.424881</v>
       </c>
       <c r="I11">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="J11">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N11">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q11">
-        <v>3347.003222451435</v>
+        <v>56959.06838966894</v>
       </c>
       <c r="R11">
-        <v>3347.003222451435</v>
+        <v>512631.6155070204</v>
       </c>
       <c r="S11">
-        <v>0.02299599503206471</v>
+        <v>0.2466310278305807</v>
       </c>
       <c r="T11">
-        <v>0.02299599503206471</v>
+        <v>0.2466310278305807</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.4300467868052</v>
+        <v>666.4749603333333</v>
       </c>
       <c r="H12">
-        <v>39.4300467868052</v>
+        <v>1999.424881</v>
       </c>
       <c r="I12">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="J12">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N12">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q12">
-        <v>4443.533088002311</v>
+        <v>81475.11809440273</v>
       </c>
       <c r="R12">
-        <v>4443.533088002311</v>
+        <v>733276.0628496244</v>
       </c>
       <c r="S12">
-        <v>0.03052983759653341</v>
+        <v>0.3527847748627351</v>
       </c>
       <c r="T12">
-        <v>0.03052983759653341</v>
+        <v>0.3527847748627352</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>666.4749603333333</v>
+      </c>
+      <c r="H13">
+        <v>1999.424881</v>
+      </c>
+      <c r="I13">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="J13">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>38.69562533333333</v>
+      </c>
+      <c r="N13">
+        <v>116.086876</v>
+      </c>
+      <c r="O13">
+        <v>0.1390758092255191</v>
+      </c>
+      <c r="P13">
+        <v>0.1390758092255191</v>
+      </c>
+      <c r="Q13">
+        <v>25789.66535910686</v>
+      </c>
+      <c r="R13">
+        <v>232106.9882319617</v>
+      </c>
+      <c r="S13">
+        <v>0.1116684639469437</v>
+      </c>
+      <c r="T13">
+        <v>0.1116684639469437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H14">
+        <v>315.012023</v>
+      </c>
+      <c r="I14">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J14">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>31.82741333333333</v>
+      </c>
+      <c r="N14">
+        <v>95.48223999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.114390792932228</v>
+      </c>
+      <c r="P14">
+        <v>0.114390792932228</v>
+      </c>
+      <c r="Q14">
+        <v>3342.005953663502</v>
+      </c>
+      <c r="R14">
+        <v>30078.05358297152</v>
+      </c>
+      <c r="S14">
+        <v>0.01447078378686138</v>
+      </c>
+      <c r="T14">
+        <v>0.01447078378686138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H15">
+        <v>315.012023</v>
+      </c>
+      <c r="I15">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J15">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>85.46317833333335</v>
+      </c>
+      <c r="N15">
+        <v>256.389535</v>
+      </c>
+      <c r="O15">
+        <v>0.307162904935779</v>
+      </c>
+      <c r="P15">
+        <v>0.307162904935779</v>
+      </c>
+      <c r="Q15">
+        <v>8973.976232931036</v>
+      </c>
+      <c r="R15">
+        <v>80765.78609637931</v>
+      </c>
+      <c r="S15">
+        <v>0.03885704321765942</v>
+      </c>
+      <c r="T15">
+        <v>0.03885704321765942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>39.4300467868052</v>
-      </c>
-      <c r="H13">
-        <v>39.4300467868052</v>
-      </c>
-      <c r="I13">
-        <v>0.06863272959942356</v>
-      </c>
-      <c r="J13">
-        <v>0.06863272959942356</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>29.3512921611543</v>
-      </c>
-      <c r="N13">
-        <v>29.3512921611543</v>
-      </c>
-      <c r="O13">
-        <v>0.115856211200362</v>
-      </c>
-      <c r="P13">
-        <v>0.115856211200362</v>
-      </c>
-      <c r="Q13">
-        <v>1157.322823167503</v>
-      </c>
-      <c r="R13">
-        <v>1157.322823167503</v>
-      </c>
-      <c r="S13">
-        <v>0.007951528015728154</v>
-      </c>
-      <c r="T13">
-        <v>0.007951528015728154</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H16">
+        <v>315.012023</v>
+      </c>
+      <c r="I16">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J16">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>122.2478306666667</v>
+      </c>
+      <c r="N16">
+        <v>366.743492</v>
+      </c>
+      <c r="O16">
+        <v>0.4393704929064738</v>
+      </c>
+      <c r="P16">
+        <v>0.4393704929064738</v>
+      </c>
+      <c r="Q16">
+        <v>12836.51214855604</v>
+      </c>
+      <c r="R16">
+        <v>115528.6093370043</v>
+      </c>
+      <c r="S16">
+        <v>0.05558170585409942</v>
+      </c>
+      <c r="T16">
+        <v>0.05558170585409943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H17">
+        <v>315.012023</v>
+      </c>
+      <c r="I17">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J17">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>38.69562533333333</v>
+      </c>
+      <c r="N17">
+        <v>116.086876</v>
+      </c>
+      <c r="O17">
+        <v>0.1390758092255191</v>
+      </c>
+      <c r="P17">
+        <v>0.1390758092255191</v>
+      </c>
+      <c r="Q17">
+        <v>4063.195739167794</v>
+      </c>
+      <c r="R17">
+        <v>36568.76165251015</v>
+      </c>
+      <c r="S17">
+        <v>0.01759351354857393</v>
+      </c>
+      <c r="T17">
+        <v>0.01759351354857393</v>
       </c>
     </row>
   </sheetData>
